--- a/console/Networking/podChExcel/podMixinsXlsx/list.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="12735" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -268,9 +263,6 @@
     <t>list_i18nKey_42</t>
   </si>
   <si>
-    <t>'Private IP'</t>
-  </si>
-  <si>
     <t>list_i18nKey_43</t>
   </si>
   <si>
@@ -346,9 +338,6 @@
     <t>list_i18nKey_55</t>
   </si>
   <si>
-    <t>'OK'</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1594,6 +1583,14 @@
   </si>
   <si>
     <t>Please select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private IP'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1601,7 +1598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1628,6 +1625,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1649,9 +1657,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1993,15 +2010,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="38.625" style="1"/>
+    <col min="1" max="3" width="38.625" style="1"/>
+    <col min="4" max="4" width="38.625" style="3"/>
+    <col min="5" max="16384" width="38.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2009,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2020,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2031,7 +2050,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2042,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -2053,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2064,7 +2083,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -2075,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2086,7 +2105,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -2097,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2108,7 +2127,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -2119,7 +2138,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -2130,7 +2149,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2141,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -2152,7 +2171,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -2163,7 +2182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -2174,7 +2193,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -2185,7 +2204,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -2196,7 +2215,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -2207,7 +2226,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
@@ -2218,7 +2237,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
@@ -2229,7 +2248,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>41</v>
@@ -2240,7 +2259,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
@@ -2251,7 +2270,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
@@ -2262,7 +2281,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>47</v>
@@ -2273,7 +2292,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>49</v>
@@ -2284,7 +2303,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
@@ -2295,7 +2314,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>53</v>
@@ -2306,7 +2325,7 @@
         <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>55</v>
@@ -2317,7 +2336,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>57</v>
@@ -2328,7 +2347,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>59</v>
@@ -2339,7 +2358,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>61</v>
@@ -2350,7 +2369,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>63</v>
@@ -2361,7 +2380,7 @@
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -2372,7 +2391,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>66</v>
@@ -2383,7 +2402,7 @@
         <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>68</v>
@@ -2394,7 +2413,7 @@
         <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>70</v>
@@ -2405,7 +2424,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>72</v>
@@ -2416,7 +2435,7 @@
         <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>74</v>
@@ -2427,7 +2446,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>76</v>
@@ -2438,7 +2457,7 @@
         <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>78</v>
@@ -2449,7 +2468,7 @@
         <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>80</v>
@@ -2460,158 +2479,159 @@
         <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>161</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B55" numberStoredAsText="1"/>
   </ignoredErrors>
